--- a/数据可视化/上海市餐饮行业.xlsx
+++ b/数据可视化/上海市餐饮行业.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NINGLIK\school\数据可视化\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.work\school\数据可视化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73501476-44DC-4812-BA81-02DD56016F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7EE976-B795-4A28-A2E9-6292BC898B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="12346" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4644" yWindow="2268" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,6 @@
   </si>
   <si>
     <t>食品类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -99,11 +97,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,441 +386,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.64453125" customWidth="1"/>
-    <col min="2" max="2" width="9.8203125" customWidth="1"/>
-    <col min="3" max="3" width="19.3515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>150</v>
+      </c>
+      <c r="C1" s="1">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1">
+        <v>162</v>
+      </c>
+      <c r="E1" s="1">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1">
+        <v>175</v>
+      </c>
+      <c r="I1" s="1">
+        <v>160</v>
+      </c>
+      <c r="J1" s="1">
+        <v>148</v>
+      </c>
+      <c r="K1" s="1">
+        <v>125</v>
+      </c>
+      <c r="L1" s="1">
+        <v>155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>123</v>
+      </c>
+      <c r="N1" s="1">
+        <v>147</v>
+      </c>
+      <c r="O1" s="1">
+        <v>139</v>
+      </c>
+      <c r="P1" s="1">
+        <v>157</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>158</v>
+      </c>
+      <c r="R1" s="1">
+        <v>163</v>
+      </c>
+      <c r="S1" s="1">
+        <v>156</v>
+      </c>
+      <c r="T1" s="1">
+        <v>127</v>
+      </c>
+      <c r="U1" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>150</v>
       </c>
       <c r="B2" s="1">
         <v>150</v>
       </c>
       <c r="C2" s="1">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1">
+        <v>129</v>
+      </c>
+      <c r="F2" s="1">
+        <v>143</v>
+      </c>
+      <c r="G2" s="1">
+        <v>152</v>
+      </c>
+      <c r="H2" s="1">
+        <v>175</v>
+      </c>
+      <c r="I2" s="1">
+        <v>160</v>
+      </c>
+      <c r="J2" s="1">
+        <v>148</v>
+      </c>
+      <c r="K2" s="1">
+        <v>125</v>
+      </c>
+      <c r="L2" s="1">
+        <v>155</v>
+      </c>
+      <c r="M2" s="1">
+        <v>123</v>
+      </c>
+      <c r="N2" s="1">
+        <v>147</v>
+      </c>
+      <c r="O2" s="1">
+        <v>139</v>
+      </c>
+      <c r="P2" s="1">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>117</v>
+      </c>
+      <c r="R2" s="1">
+        <v>163</v>
+      </c>
+      <c r="S2" s="1">
+        <v>115</v>
+      </c>
+      <c r="T2" s="1">
+        <v>127</v>
+      </c>
+      <c r="U2" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>150</v>
-      </c>
-      <c r="D2" s="1">
-        <v>150</v>
-      </c>
-      <c r="E2" s="1">
-        <v>150</v>
-      </c>
-      <c r="F2" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>144</v>
-      </c>
-      <c r="B3" s="1">
-        <v>144</v>
       </c>
       <c r="C3" s="1">
         <v>144</v>
       </c>
       <c r="D3" s="1">
+        <v>162</v>
+      </c>
+      <c r="E3" s="1">
+        <v>129</v>
+      </c>
+      <c r="F3" s="1">
+        <v>143</v>
+      </c>
+      <c r="G3" s="1">
+        <v>152</v>
+      </c>
+      <c r="H3" s="1">
+        <v>175</v>
+      </c>
+      <c r="I3" s="1">
+        <v>124</v>
+      </c>
+      <c r="J3" s="1">
+        <v>148</v>
+      </c>
+      <c r="K3" s="1">
+        <v>125</v>
+      </c>
+      <c r="L3" s="1">
+        <v>155</v>
+      </c>
+      <c r="M3" s="1">
+        <v>123</v>
+      </c>
+      <c r="N3" s="1">
+        <v>147</v>
+      </c>
+      <c r="O3" s="1">
+        <v>139</v>
+      </c>
+      <c r="P3" s="1">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>158</v>
+      </c>
+      <c r="R3" s="1">
+        <v>163</v>
+      </c>
+      <c r="S3" s="1">
+        <v>156</v>
+      </c>
+      <c r="T3" s="1">
+        <v>223</v>
+      </c>
+      <c r="U3" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1">
         <v>144</v>
-      </c>
-      <c r="E3" s="1">
-        <v>144</v>
-      </c>
-      <c r="F3" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>162</v>
-      </c>
-      <c r="B4" s="1">
-        <v>162</v>
-      </c>
-      <c r="C4" s="1">
-        <v>162</v>
       </c>
       <c r="D4" s="1">
         <v>162</v>
       </c>
       <c r="E4" s="1">
+        <v>129</v>
+      </c>
+      <c r="F4" s="1">
+        <v>143</v>
+      </c>
+      <c r="G4" s="1">
+        <v>152</v>
+      </c>
+      <c r="H4" s="1">
+        <v>175</v>
+      </c>
+      <c r="I4" s="1">
+        <v>160</v>
+      </c>
+      <c r="J4" s="1">
+        <v>148</v>
+      </c>
+      <c r="K4" s="1">
+        <v>125</v>
+      </c>
+      <c r="L4" s="1">
+        <v>155</v>
+      </c>
+      <c r="M4" s="1">
+        <v>123</v>
+      </c>
+      <c r="N4" s="1">
+        <v>147</v>
+      </c>
+      <c r="O4" s="1">
+        <v>139</v>
+      </c>
+      <c r="P4" s="1">
+        <v>145</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>116</v>
+      </c>
+      <c r="R4" s="1">
+        <v>163</v>
+      </c>
+      <c r="S4" s="1">
+        <v>156</v>
+      </c>
+      <c r="T4" s="1">
+        <v>99</v>
+      </c>
+      <c r="U4" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1">
         <v>162</v>
-      </c>
-      <c r="F4" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>129</v>
-      </c>
-      <c r="B5" s="1">
-        <v>129</v>
-      </c>
-      <c r="C5" s="1">
-        <v>129</v>
-      </c>
-      <c r="D5" s="1">
-        <v>129</v>
       </c>
       <c r="E5" s="1">
         <v>129</v>
       </c>
       <c r="F5" s="1">
+        <v>143</v>
+      </c>
+      <c r="G5" s="1">
+        <v>152</v>
+      </c>
+      <c r="H5" s="1">
+        <v>175</v>
+      </c>
+      <c r="I5" s="1">
+        <v>160</v>
+      </c>
+      <c r="J5" s="1">
+        <v>148</v>
+      </c>
+      <c r="K5" s="1">
+        <v>157</v>
+      </c>
+      <c r="L5" s="1">
+        <v>155</v>
+      </c>
+      <c r="M5" s="1">
+        <v>123</v>
+      </c>
+      <c r="N5" s="1">
+        <v>147</v>
+      </c>
+      <c r="O5" s="1">
+        <v>139</v>
+      </c>
+      <c r="P5" s="1">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>158</v>
+      </c>
+      <c r="R5" s="1">
+        <v>163</v>
+      </c>
+      <c r="S5" s="1">
+        <v>156</v>
+      </c>
+      <c r="T5" s="1">
+        <v>127</v>
+      </c>
+      <c r="U5" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1">
+        <v>144</v>
+      </c>
+      <c r="D6" s="1">
+        <v>162</v>
+      </c>
+      <c r="E6" s="1">
         <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>143</v>
-      </c>
-      <c r="B6" s="1">
-        <v>143</v>
-      </c>
-      <c r="C6" s="1">
-        <v>143</v>
-      </c>
-      <c r="D6" s="1">
-        <v>143</v>
-      </c>
-      <c r="E6" s="1">
-        <v>143</v>
       </c>
       <c r="F6" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="G6" s="1">
         <v>152</v>
       </c>
-      <c r="B7" s="1">
-        <v>152</v>
-      </c>
-      <c r="C7" s="1">
-        <v>152</v>
-      </c>
-      <c r="D7" s="1">
-        <v>152</v>
-      </c>
-      <c r="E7" s="1">
-        <v>152</v>
-      </c>
-      <c r="F7" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="H6" s="1">
         <v>175</v>
       </c>
-      <c r="B8" s="1">
-        <v>175</v>
-      </c>
-      <c r="C8" s="1">
-        <v>175</v>
-      </c>
-      <c r="D8" s="1">
-        <v>175</v>
-      </c>
-      <c r="E8" s="1">
-        <v>175</v>
-      </c>
-      <c r="F8" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="I6" s="1">
         <v>160</v>
       </c>
-      <c r="B9" s="1">
-        <v>160</v>
-      </c>
-      <c r="C9" s="1">
-        <v>160</v>
-      </c>
-      <c r="D9" s="1">
-        <v>160</v>
-      </c>
-      <c r="E9" s="1">
-        <v>160</v>
-      </c>
-      <c r="F9" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="J6" s="1">
         <v>148</v>
       </c>
-      <c r="B10" s="1">
-        <v>148</v>
-      </c>
-      <c r="C10" s="1">
-        <v>148</v>
-      </c>
-      <c r="D10" s="1">
-        <v>148</v>
-      </c>
-      <c r="E10" s="1">
-        <v>148</v>
-      </c>
-      <c r="F10" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="K6" s="1">
         <v>125</v>
       </c>
-      <c r="B11" s="1">
-        <v>125</v>
-      </c>
-      <c r="C11" s="1">
-        <v>125</v>
-      </c>
-      <c r="D11" s="1">
-        <v>125</v>
-      </c>
-      <c r="E11" s="1">
-        <v>125</v>
-      </c>
-      <c r="F11" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="L6" s="1">
         <v>155</v>
       </c>
-      <c r="B12" s="1">
-        <v>155</v>
-      </c>
-      <c r="C12" s="1">
-        <v>155</v>
-      </c>
-      <c r="D12" s="1">
-        <v>155</v>
-      </c>
-      <c r="E12" s="1">
-        <v>155</v>
-      </c>
-      <c r="F12" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="M6" s="1">
         <v>123</v>
       </c>
-      <c r="B13" s="1">
-        <v>123</v>
-      </c>
-      <c r="C13" s="1">
-        <v>123</v>
-      </c>
-      <c r="D13" s="1">
-        <v>123</v>
-      </c>
-      <c r="E13" s="1">
-        <v>123</v>
-      </c>
-      <c r="F13" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>147</v>
-      </c>
-      <c r="B14" s="1">
-        <v>147</v>
-      </c>
-      <c r="C14" s="1">
-        <v>147</v>
-      </c>
-      <c r="D14" s="1">
-        <v>147</v>
-      </c>
-      <c r="E14" s="1">
-        <v>147</v>
-      </c>
-      <c r="F14" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>139</v>
-      </c>
-      <c r="B15" s="1">
-        <v>139</v>
-      </c>
-      <c r="C15" s="1">
-        <v>139</v>
-      </c>
-      <c r="D15" s="1">
-        <v>139</v>
-      </c>
-      <c r="E15" s="1">
-        <v>139</v>
-      </c>
-      <c r="F15" s="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="N6" s="1">
+        <v>147</v>
+      </c>
+      <c r="O6" s="1">
+        <v>138</v>
+      </c>
+      <c r="P6" s="1">
         <v>145</v>
       </c>
-      <c r="B16" s="1">
-        <v>145</v>
-      </c>
-      <c r="C16" s="1">
-        <v>145</v>
-      </c>
-      <c r="D16" s="1">
-        <v>145</v>
-      </c>
-      <c r="E16" s="1">
-        <v>145</v>
-      </c>
-      <c r="F16" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>158</v>
-      </c>
-      <c r="B17" s="1">
-        <v>158</v>
-      </c>
-      <c r="C17" s="1">
-        <v>158</v>
-      </c>
-      <c r="D17" s="1">
-        <v>158</v>
-      </c>
-      <c r="E17" s="1">
-        <v>158</v>
-      </c>
-      <c r="F17" s="1">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="Q6" s="1">
+        <v>119</v>
+      </c>
+      <c r="R6" s="1">
         <v>163</v>
       </c>
-      <c r="B18" s="1">
-        <v>163</v>
-      </c>
-      <c r="C18" s="1">
-        <v>163</v>
-      </c>
-      <c r="D18" s="1">
-        <v>163</v>
-      </c>
-      <c r="E18" s="1">
-        <v>163</v>
-      </c>
-      <c r="F18" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="S6" s="1">
         <v>156</v>
       </c>
-      <c r="B19" s="1">
-        <v>156</v>
-      </c>
-      <c r="C19" s="1">
-        <v>156</v>
-      </c>
-      <c r="D19" s="1">
-        <v>156</v>
-      </c>
-      <c r="E19" s="1">
-        <v>156</v>
-      </c>
-      <c r="F19" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
+      <c r="T6" s="1">
         <v>127</v>
       </c>
-      <c r="B20" s="1">
-        <v>127</v>
-      </c>
-      <c r="C20" s="1">
-        <v>127</v>
-      </c>
-      <c r="D20" s="1">
-        <v>127</v>
-      </c>
-      <c r="E20" s="1">
-        <v>127</v>
-      </c>
-      <c r="F20" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>147</v>
-      </c>
-      <c r="B21" s="1">
-        <v>147</v>
-      </c>
-      <c r="C21" s="1">
-        <v>147</v>
-      </c>
-      <c r="D21" s="1">
-        <v>147</v>
-      </c>
-      <c r="E21" s="1">
-        <v>147</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="U6" s="1">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>